--- a/biology/Médecine/Liste_des_points_d'acupuncture/Liste_des_points_d'acupuncture.xlsx
+++ b/biology/Médecine/Liste_des_points_d'acupuncture/Liste_des_points_d'acupuncture.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_points_d%27acupuncture</t>
+          <t>Liste_des_points_d'acupuncture</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article fournit une liste complète des points d'acupuncture et de leur emplacement sur le corps d'après la médecine traditionnelle chinoise (MTC) .
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_points_d%27acupuncture</t>
+          <t>Liste_des_points_d'acupuncture</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,12 @@
           <t>Lieux et base</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plus de quatre cents points d'acupuncture ont été décrits au cours de l'histoire de la médecine traditionnelle chinoise (MTC). La majorité de ces points sont situés sur les principaux méridiens d'acupuncture qui constituent des canaux transportant l'énergie vitale ( qi, 氣 ) dans l'ensemble du corps. La MTC reconnaît vingt méridiens, de nature cutanée et sous-cutanée, eux-mêmes ramifiés en sous-méridiens distribués dans les tissus environnants. Douze de ces grands méridiens, communément appelés "méridiens principaux", sont bilatéraux et sont associés à des organes internes. Les huit méridiens restants sont qualifiés "d'extraordinaires" et sont également bilatéraux, à l'exception de trois : un qui entoure le corps près de la taille et deux qui longent la ligne médiane du corps. Seuls les deux méridiens extraordinaires proches de la ligne médiane contiennent leurs propres points, les six autres présentent des points partagés avec les douze méridiens principaux susmentionnés. Il y a aussi des points qui ne sont pas situés sur ces quatorze méridiens mais que l'on voit néanmoins apparaître dans le référencement complet appelé jing luo ( 經絡  ). Ils sont souvent appelés «points additionnels»[1].
-Bien que de nombreuses hypothèses aient été proposées, le fondement anatomique et physiologique des points d'acupuncture et des méridiens reste insaisissable[2]. Parmi les hypothèses évoquées on trouve les signaux neuronaux qui impliqueraient des peptides opioïdes, du glutamate et de l'adénosine en interaction avec des parties du système nerveux central. Une autre piste est celle de la signalisation mécanique avec implication du tissu conjonctif (fascia) et activation des canaux ioniques calciques par  sécrétion de bêta-endorphine[3] En pratique, les points d'acupuncture sont localisés par le praticien grâce une combinaison de repères anatomiques, de palpation et de rétroaction du patient[1].
-Douze méridiens principaux
-Huit méridiens extraordinaires
-Les huit méridiens extraordinaires (chinois simplifié : 奇经八脉; chinois traditionnel : 奇經八脈; pinyin: qí jīng bā mài) sont d'une importance cruciale dans l'étude du Qigong, du T'ai chi ch'uan et de l'alchimie chinoise[4]. Seuls les méridiens du vaisseau gouverneur et du vaisseau conception ont leurs propres points, les autres méridiens extraordinaires sont constitués de points "empruntés" aux 12 méridiens principaux.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plus de quatre cents points d'acupuncture ont été décrits au cours de l'histoire de la médecine traditionnelle chinoise (MTC). La majorité de ces points sont situés sur les principaux méridiens d'acupuncture qui constituent des canaux transportant l'énergie vitale ( qi, 氣 ) dans l'ensemble du corps. La MTC reconnaît vingt méridiens, de nature cutanée et sous-cutanée, eux-mêmes ramifiés en sous-méridiens distribués dans les tissus environnants. Douze de ces grands méridiens, communément appelés "méridiens principaux", sont bilatéraux et sont associés à des organes internes. Les huit méridiens restants sont qualifiés "d'extraordinaires" et sont également bilatéraux, à l'exception de trois : un qui entoure le corps près de la taille et deux qui longent la ligne médiane du corps. Seuls les deux méridiens extraordinaires proches de la ligne médiane contiennent leurs propres points, les six autres présentent des points partagés avec les douze méridiens principaux susmentionnés. Il y a aussi des points qui ne sont pas situés sur ces quatorze méridiens mais que l'on voit néanmoins apparaître dans le référencement complet appelé jing luo ( 經絡  ). Ils sont souvent appelés «points additionnels».
+Bien que de nombreuses hypothèses aient été proposées, le fondement anatomique et physiologique des points d'acupuncture et des méridiens reste insaisissable. Parmi les hypothèses évoquées on trouve les signaux neuronaux qui impliqueraient des peptides opioïdes, du glutamate et de l'adénosine en interaction avec des parties du système nerveux central. Une autre piste est celle de la signalisation mécanique avec implication du tissu conjonctif (fascia) et activation des canaux ioniques calciques par  sécrétion de bêta-endorphine En pratique, les points d'acupuncture sont localisés par le praticien grâce une combinaison de repères anatomiques, de palpation et de rétroaction du patient.
 </t>
         </is>
       </c>
@@ -528,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_points_d%27acupuncture</t>
+          <t>Liste_des_points_d'acupuncture</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,13 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Nomenclature</t>
+          <t>Lieux et base</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dans les pays d'Asie de l'Est, les praticiens font généralement référence aux points d'acupuncture par leurs noms traditionnels. Certains points ont plusieurs noms. Lorsque l'acupuncture a été adoptée dans le monde occidental, une nomenclature standard a été développée pour identifier sans ambiguïté les points d'acupuncture sur les méridiens. Ce modèle a été largement accepté et aujourd'hui, pratiquement tous les livres sur l'acupuncture font référence aux points d'acupuncture qui l'utilisent. L'Organisation mondiale de la santé (OMS) a publié une proposition de classification des points (A Proposed Standard International Acupuncture Nomenclature Report) en 1991. Elle répertorie 361 points d'acupuncture classiques sur les quatorze méridiens, huit méridiens extraordinaires, 48 points supplémentaires et des points additionnels sur le crâne[5]. Elle a aussi publié La nomenclature de l'acupuncture standard (Standard Acupuncture Nomenclature) en 1993, centrée uniquement sur les 361 points d'acupuncture classiques[6]. Chaque point d'acupuncture est identifié par le méridien sur lequel il se trouve et un numéro selon l'ordre dans lequel il apparait sur ce canal. Ainsi, P9 identifie le 9ème point d'acupuncture sur le méridien du poumon et il peut être désigné par deux noms : tài yuān (太渊) ou gui xin (鬼心). Cette méthode systématique ne règle cependant pas tous les équivoques, notamment concernant le méridien de la vessie, qui présente au niveau du dos des points qui peuvent se localiser et se classifier de diverses manières. Il n'y a pas de classement communément accepté et par conséquent, l'identification universelle de ces points repose sur leur dénomination d'origine d'après leur nom chinois.
-Les tableaux de cet article suivent la numérotation standard pour identifier les points d'acupuncture des canaux principaux. Pour les points supplémentaires, les tableaux suivent la numérotation définie dans A Manual of Acupuncture[1].
+          <t>Huit méridiens extraordinaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les huit méridiens extraordinaires (chinois simplifié : 奇经八脉; chinois traditionnel : 奇經八脈; pinyin: qí jīng bā mài) sont d'une importance cruciale dans l'étude du Qigong, du T'ai chi ch'uan et de l'alchimie chinoise. Seuls les méridiens du vaisseau gouverneur et du vaisseau conception ont leurs propres points, les autres méridiens extraordinaires sont constitués de points "empruntés" aux 12 méridiens principaux.
 </t>
         </is>
       </c>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_points_d%27acupuncture</t>
+          <t>Liste_des_points_d'acupuncture</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,12 +591,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Méridien du poumon</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Abrégé en P, il est nommé en chinois "手太阴肺经穴; 手太陰肺經 " c'est-à-dire "Le canal du poumon de la main, grand Yin ". Il s'agit d'un méridien commençant dans le bras qui associe le poumon avec le yin et il est considéré comme facile à trouver.
+          <t>Nomenclature</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les pays d'Asie de l'Est, les praticiens font généralement référence aux points d'acupuncture par leurs noms traditionnels. Certains points ont plusieurs noms. Lorsque l'acupuncture a été adoptée dans le monde occidental, une nomenclature standard a été développée pour identifier sans ambiguïté les points d'acupuncture sur les méridiens. Ce modèle a été largement accepté et aujourd'hui, pratiquement tous les livres sur l'acupuncture font référence aux points d'acupuncture qui l'utilisent. L'Organisation mondiale de la santé (OMS) a publié une proposition de classification des points (A Proposed Standard International Acupuncture Nomenclature Report) en 1991. Elle répertorie 361 points d'acupuncture classiques sur les quatorze méridiens, huit méridiens extraordinaires, 48 points supplémentaires et des points additionnels sur le crâne. Elle a aussi publié La nomenclature de l'acupuncture standard (Standard Acupuncture Nomenclature) en 1993, centrée uniquement sur les 361 points d'acupuncture classiques. Chaque point d'acupuncture est identifié par le méridien sur lequel il se trouve et un numéro selon l'ordre dans lequel il apparait sur ce canal. Ainsi, P9 identifie le 9ème point d'acupuncture sur le méridien du poumon et il peut être désigné par deux noms : tài yuān (太渊) ou gui xin (鬼心). Cette méthode systématique ne règle cependant pas tous les équivoques, notamment concernant le méridien de la vessie, qui présente au niveau du dos des points qui peuvent se localiser et se classifier de diverses manières. Il n'y a pas de classement communément accepté et par conséquent, l'identification universelle de ces points repose sur leur dénomination d'origine d'après leur nom chinois.
+Les tableaux de cet article suivent la numérotation standard pour identifier les points d'acupuncture des canaux principaux. Pour les points supplémentaires, les tableaux suivent la numérotation définie dans A Manual of Acupuncture.
 </t>
         </is>
       </c>
@@ -591,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_des_points_d%27acupuncture</t>
+          <t>Liste_des_points_d'acupuncture</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,12 +625,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Méridien du gros intestin</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Abrégé en GI, il est nommé en chinois "手阳明大肠经 "  C'est-à-dire le gros intestin du canal de la main, Yang lumineux".
+          <t>Méridien du poumon</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abrégé en P, il est nommé en chinois "手太阴肺经穴; 手太陰肺經 " c'est-à-dire "Le canal du poumon de la main, grand Yin ". Il s'agit d'un méridien commençant dans le bras qui associe le poumon avec le yin et il est considéré comme facile à trouver.
 </t>
         </is>
       </c>
@@ -622,7 +643,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_des_points_d%27acupuncture</t>
+          <t>Liste_des_points_d'acupuncture</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,12 +658,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Méridien de l'estomac</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Abrégé en E, il est nommé en chinois "足阳明胃经穴;足 陽明 胃 經" c'est-à-dire le canal de l'estomac du pied, Yang lumineux".
+          <t>Méridien du gros intestin</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abrégé en GI, il est nommé en chinois "手阳明大肠经 "  C'est-à-dire le gros intestin du canal de la main, Yang lumineux".
 </t>
         </is>
       </c>
@@ -653,7 +676,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_des_points_d%27acupuncture</t>
+          <t>Liste_des_points_d'acupuncture</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -668,12 +691,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Méridien de la rate</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Abrégé en Rt parfois RP (pour rate-pancréas),il est nommé en chinois "足太阴睥经穴;足 太陰 脾 經" c'est-à-dire "le canal de la rate du pied, le plus grand Yin".
+          <t>Méridien de l'estomac</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abrégé en E, il est nommé en chinois "足阳明胃经穴;足 陽明 胃 經" c'est-à-dire le canal de l'estomac du pied, Yang lumineux".
 </t>
         </is>
       </c>
@@ -684,7 +709,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_des_points_d%27acupuncture</t>
+          <t>Liste_des_points_d'acupuncture</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -699,12 +724,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Méridien du cœur</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Abrégé en C, il est nommé en chinois "手少阴心经穴;手 少陰 心 經" c'est-à-dire "le canal du cœur de la main, petit Yin".
+          <t>Méridien de la rate</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abrégé en Rt parfois RP (pour rate-pancréas),il est nommé en chinois "足太阴睥经穴;足 太陰 脾 經" c'est-à-dire "le canal de la rate du pied, le plus grand Yin".
 </t>
         </is>
       </c>
@@ -715,7 +742,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_des_points_d%27acupuncture</t>
+          <t>Liste_des_points_d'acupuncture</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -730,12 +757,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Méridien de l'intestin grêle</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Abrégé en IG, il est nommé en chinois "手太阳小肠经穴;手 太陽 小腸 經" c'est-à-dire "Le canal de l'intestin grêle de la main, le plus grand Yang".
+          <t>Méridien du cœur</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abrégé en C, il est nommé en chinois "手少阴心经穴;手 少陰 心 經" c'est-à-dire "le canal du cœur de la main, petit Yin".
 </t>
         </is>
       </c>
@@ -746,7 +775,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_des_points_d%27acupuncture</t>
+          <t>Liste_des_points_d'acupuncture</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -761,13 +790,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Méridien de la vessie</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Abrégé en V, il est nommé en chinois " 足太阳膀胱经穴;足 太陽 膀胱 經" c'est-à-dire "Le canal de la vessie du pied, le grand Yang".
-Une numérotation alternative existe pour la "partie annexée" (commençant par V41 dans la liste ci-dessous), qui place la ligne extérieure le long de la colonne vertébrale après V35 (會陽) au lieu de V40 (委中), sera noté dans la colonne Autres Noms.
+          <t>Méridien de l'intestin grêle</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abrégé en IG, il est nommé en chinois "手太阳小肠经穴;手 太陽 小腸 經" c'est-à-dire "Le canal de l'intestin grêle de la main, le plus grand Yang".
 </t>
         </is>
       </c>
@@ -778,7 +808,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_des_points_d%27acupuncture</t>
+          <t>Liste_des_points_d'acupuncture</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -793,12 +823,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Méridien du rein</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Abrégé en R, il est décrit en chinois comme "足少阴肾经穴" ou "足少陰腎經" c'est-à-dire "Le canal de rein de pied, moindre Yin".
+          <t>Méridien de la vessie</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abrégé en V, il est nommé en chinois " 足太阳膀胱经穴;足 太陽 膀胱 經" c'est-à-dire "Le canal de la vessie du pied, le grand Yang".
+Une numérotation alternative existe pour la "partie annexée" (commençant par V41 dans la liste ci-dessous), qui place la ligne extérieure le long de la colonne vertébrale après V35 (會陽) au lieu de V40 (委中), sera noté dans la colonne Autres Noms.
 </t>
         </is>
       </c>
@@ -809,7 +842,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_des_points_d%27acupuncture</t>
+          <t>Liste_des_points_d'acupuncture</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -824,12 +857,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Méridien du péricarde</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Abrégé en PC, il est nommé en chinois "手厥阴心包经穴;手 厥 陰 心包 經" c'est-à-dire "Le canal du péricarde de la main, Faint Yin". En français on trouve couramment l'expression "Maître du cœur" pour se référer à ce méridien. Cependant cette traduction est contestée par certains auteurs car l'appellation chinoise xīn bāo 心包  se traduit littéralement par "enveloppe du cœur"[9]
+          <t>Méridien du rein</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abrégé en R, il est décrit en chinois comme "足少阴肾经穴" ou "足少陰腎經" c'est-à-dire "Le canal de rein de pied, moindre Yin".
 </t>
         </is>
       </c>
@@ -840,7 +875,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_des_points_d%27acupuncture</t>
+          <t>Liste_des_points_d'acupuncture</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -855,12 +890,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Méridien triple réchaufeur</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Également connu sous le nom de San Jiao, le triple réchauffeur, abrégé en TR et nommé en chinois "手少阳三焦经穴;手 少陽 三焦 經" c'est-à-dire "Le canal San jiao de la Main, Petit Yang". La traduction française de Triple réchauffeur est contestée car l'expression chinoise sān jiāo 三焦 se réfère plutôt à une sorte de braséro sur lequel on pouvait faire cuire des aliments. Certains auteurs comme Philippe Sionneau lui préfère l'appellation "trois foyers"[10]
+          <t>Méridien du péricarde</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abrégé en PC, il est nommé en chinois "手厥阴心包经穴;手 厥 陰 心包 經" c'est-à-dire "Le canal du péricarde de la main, Faint Yin". En français on trouve couramment l'expression "Maître du cœur" pour se référer à ce méridien. Cependant cette traduction est contestée par certains auteurs car l'appellation chinoise xīn bāo 心包  se traduit littéralement par "enveloppe du cœur"
 </t>
         </is>
       </c>
@@ -871,7 +908,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_des_points_d%27acupuncture</t>
+          <t>Liste_des_points_d'acupuncture</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -886,12 +923,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Méridien de la vésicule biliaire</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Abrégé en VB, ce méridien est nommé en chinois "足少阳胆经穴;足 少陽 膽 經" c'est-à-dire "Le canal de la vésicule biliaire du pied, petit Yang".
+          <t>Méridien triple réchaufeur</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Également connu sous le nom de San Jiao, le triple réchauffeur, abrégé en TR et nommé en chinois "手少阳三焦经穴;手 少陽 三焦 經" c'est-à-dire "Le canal San jiao de la Main, Petit Yang". La traduction française de Triple réchauffeur est contestée car l'expression chinoise sān jiāo 三焦 se réfère plutôt à une sorte de braséro sur lequel on pouvait faire cuire des aliments. Certains auteurs comme Philippe Sionneau lui préfère l'appellation "trois foyers"
 </t>
         </is>
       </c>
@@ -902,7 +941,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liste_des_points_d%27acupuncture</t>
+          <t>Liste_des_points_d'acupuncture</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -917,12 +956,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Méridien du foie</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Abrégé en F, il est nommé "足厥阴肝经穴;足 厥 陰 肝 經" en chinois, c'est-à-dire "Le canal du foie de Foot Jueyin".
+          <t>Méridien de la vésicule biliaire</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abrégé en VB, ce méridien est nommé en chinois "足少阳胆经穴;足 少陽 膽 經" c'est-à-dire "Le canal de la vésicule biliaire du pied, petit Yang".
 </t>
         </is>
       </c>
@@ -933,7 +974,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liste_des_points_d%27acupuncture</t>
+          <t>Liste_des_points_d'acupuncture</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -948,12 +989,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Vaisseau gouverneur</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aussi connu sous le nom de Du Mai, abrégé en VG ou DM. Il est nommé "督脉穴;督脈" en chinois, c'est-à-dire "Le navire gouvernant".
+          <t>Méridien du foie</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abrégé en F, il est nommé "足厥阴肝经穴;足 厥 陰 肝 經" en chinois, c'est-à-dire "Le canal du foie de Foot Jueyin".
 </t>
         </is>
       </c>
@@ -964,7 +1007,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Liste_des_points_d%27acupuncture</t>
+          <t>Liste_des_points_d'acupuncture</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -979,12 +1022,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Vaisseau conception</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aussi connu sous le nom de Ren Mai, abrégé en VC ou Ren. Il est nommé "任脉穴;任脈" en chinois c'est-à-dire "Le navire conception".
+          <t>Vaisseau gouverneur</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aussi connu sous le nom de Du Mai, abrégé en VG ou DM. Il est nommé "督脉穴;督脈" en chinois, c'est-à-dire "Le navire gouvernant".
 </t>
         </is>
       </c>
@@ -995,7 +1040,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Liste_des_points_d%27acupuncture</t>
+          <t>Liste_des_points_d'acupuncture</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1010,14 +1055,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Points additionnels</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il n'y a pas de dénomination unanime pour ces points supplémentaires.
-Le tableau suivant suit la numérotation de Peter Deadman[1].
-Cette deuxième table nomme les méridiens tels qu'ils apparaissent dans le tableau.
+          <t>Vaisseau conception</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aussi connu sous le nom de Ren Mai, abrégé en VC ou Ren. Il est nommé "任脉穴;任脈" en chinois c'est-à-dire "Le navire conception".
 </t>
         </is>
       </c>
@@ -1028,7 +1073,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Liste_des_points_d%27acupuncture</t>
+          <t>Liste_des_points_d'acupuncture</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1043,17 +1088,54 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>Points additionnels</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il n'y a pas de dénomination unanime pour ces points supplémentaires.
+Le tableau suivant suit la numérotation de Peter Deadman.
+Cette deuxième table nomme les méridiens tels qu'ils apparaissent dans le tableau.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_des_points_d'acupuncture</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_points_d%27acupuncture</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Remarques</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Also called 或中 huò zhōng, but this is an obvious mistranscription
-↑ First character means qì/qī (contract/spasm)[1]
+↑ First character means qì/qī (contract/spasm)
 ↑ also called 客主人 kè zhǔ rén
 ↑ also called 絶骨 jué gǔ
-↑ In WHO's 1991 booklet, referred to as EX-UE2[5]
+↑ In WHO's 1991 booklet, referred to as EX-UE2
 </t>
         </is>
       </c>
